--- a/Aged_Items_Usage.xlsx
+++ b/Aged_Items_Usage.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neousystechhq-my.sharepoint.com/personal/zheyuan_chen_neousys-tech_com/Documents/Desktop/Python/ERP_System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_1065EAF45670900F62355476585DCE3A874724BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9B44E3A-9F51-419B-8273-722C89CA5C57}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_1065EAF45670900F62355476585DCE3A874724BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1116E66-9C08-4CEB-9415-E03EC9077EBF}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="2460" windowWidth="28635" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28365" yWindow="825" windowWidth="28635" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$82</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -22,15 +25,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="193">
   <si>
-    <t>first_product_number</t>
-  </si>
-  <si>
-    <t>files</t>
-  </si>
-  <si>
-    <t>matched_items</t>
-  </si>
-  <si>
     <t>DDR4-16GB-WT32-SM</t>
   </si>
   <si>
@@ -599,6 +593,15 @@
   </si>
   <si>
     <t>['WO07-20250648-AIM Intelligent Machines.docx']</t>
+  </si>
+  <si>
+    <t>Long Aged Items</t>
+  </si>
+  <si>
+    <t>Usage case</t>
+  </si>
+  <si>
+    <t>System</t>
   </si>
 </sst>
 </file>
@@ -617,6 +620,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -964,7 +968,7 @@
   <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,13 +980,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -990,13 +994,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1004,13 +1008,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1018,13 +1022,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1032,13 +1036,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1046,13 +1050,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1060,13 +1064,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1074,13 +1078,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1088,13 +1092,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1102,13 +1106,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1116,13 +1120,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1130,13 +1134,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1144,13 +1148,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1158,13 +1162,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1172,13 +1176,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1186,13 +1190,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1200,13 +1204,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1214,13 +1218,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1228,13 +1232,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1242,13 +1246,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1256,13 +1260,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1270,13 +1274,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1284,13 +1288,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1298,13 +1302,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1312,13 +1316,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1326,13 +1330,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1340,13 +1344,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1354,13 +1358,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1368,13 +1372,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1382,13 +1386,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1396,13 +1400,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1410,13 +1414,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1424,13 +1428,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1438,13 +1442,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1452,13 +1456,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1466,13 +1470,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1480,13 +1484,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1494,13 +1498,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1508,13 +1512,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1522,13 +1526,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1536,13 +1540,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1550,13 +1554,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1564,13 +1568,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,13 +1582,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1592,13 +1596,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1606,13 +1610,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,13 +1624,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1634,13 +1638,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1648,13 +1652,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1662,13 +1666,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1676,13 +1680,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,13 +1694,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D52" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1704,13 +1708,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D53" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1718,13 +1722,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D54" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1732,13 +1736,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1746,13 +1750,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1760,13 +1764,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D57" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1774,13 +1778,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1788,13 +1792,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1802,13 +1806,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1816,13 +1820,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1830,13 +1834,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D62" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1844,13 +1848,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D63" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1858,13 +1862,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C64" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1872,13 +1876,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C65" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D65" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1886,13 +1890,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1900,13 +1904,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1914,13 +1918,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1928,13 +1932,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1942,13 +1946,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D70" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1956,13 +1960,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C71" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D71" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1970,13 +1974,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C72" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D72" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1984,13 +1988,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C73" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D73" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1998,13 +2002,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D74" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2012,13 +2016,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C75" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2026,13 +2030,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2040,13 +2044,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C77" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D77" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2054,13 +2058,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C78" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2068,13 +2072,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C79" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D79" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2082,13 +2086,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D80" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2096,13 +2100,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2110,16 +2114,17 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C82" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B82" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>